--- a/MODELES/31213_etab.xlsx
+++ b/MODELES/31213_etab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\pierr\ALIDade\MODELES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Desktop\MODELES202304031600\MODELES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A29FD90-5E82-467E-92DF-501993B71217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700A023-322F-4E1D-870A-402018D4D11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21168" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1462,6 +1462,10 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2041,17 +2045,17 @@
     <row r="4" spans="1:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:10" ht="31.05" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="31"/>
-      <c r="B5" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
@@ -2063,17 +2067,17 @@
     </row>
     <row r="8" spans="1:10" ht="23.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="32"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="90"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="23.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="32"/>
@@ -2085,17 +2089,17 @@
     </row>
     <row r="10" spans="1:10" ht="50.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="90"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
@@ -2103,17 +2107,17 @@
     </row>
     <row r="12" spans="1:10" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="33"/>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="47" t="s">
@@ -2169,12 +2173,12 @@
       <c r="C28" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="87"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="88"/>
     </row>
     <row r="29" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2183,15 +2187,15 @@
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="39" t="e">
-        <f>RECAPNOTES!D50</f>
+        <f>RECAPNOTES!D102</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="39" t="e">
-        <f>RECAPNOTES!E50</f>
+        <f>RECAPNOTES!E102</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="39" t="e">
-        <f>RECAPNOTES!F50</f>
+        <f>RECAPNOTES!F102</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2201,15 +2205,15 @@
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="39">
-        <f>RECAPNOTES!D51</f>
+        <f>RECAPNOTES!D103</f>
         <v>0</v>
       </c>
       <c r="F31" s="39">
-        <f>RECAPNOTES!E51</f>
+        <f>RECAPNOTES!E103</f>
         <v>0</v>
       </c>
       <c r="G31" s="39">
-        <f>RECAPNOTES!F51</f>
+        <f>RECAPNOTES!F103</f>
         <v>0</v>
       </c>
     </row>
@@ -2219,31 +2223,31 @@
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="39">
-        <f>RECAPNOTES!D52</f>
+        <f>RECAPNOTES!D104</f>
         <v>0</v>
       </c>
       <c r="F32" s="39">
-        <f>RECAPNOTES!E52</f>
+        <f>RECAPNOTES!E104</f>
         <v>0</v>
       </c>
       <c r="G32" s="39">
-        <f>RECAPNOTES!F52</f>
+        <f>RECAPNOTES!F104</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="62"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="87"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="88"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="62"/>
@@ -2258,25 +2262,25 @@
       <c r="E36" s="62"/>
     </row>
     <row r="37" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="62"/>
       <c r="C38" s="63"/>
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
     </row>
     <row r="39" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="62"/>
@@ -2285,17 +2289,17 @@
       <c r="E39" s="62"/>
     </row>
     <row r="40" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="62"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="88"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="44" t="s">
@@ -2366,7 +2370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -2385,49 +2389,49 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
     </row>
     <row r="4" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="117">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="118">
         <f>'Page de garde'!E28</f>
         <v>0</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="114" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
@@ -2435,32 +2439,32 @@
       </c>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="114">
+      <c r="D6" s="115">
         <f>'Page de garde'!F37</f>
         <v>0</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="7" spans="1:6" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="104" t="str">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="105" t="str">
         <f>'Page de garde'!B12</f>
         <v>SESSION 2023</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="81" t="s">
         <v>5</v>
       </c>
@@ -2472,26 +2476,26 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="109" t="s">
+      <c r="A9" s="122"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="112" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="123"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="112"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -2817,60 +2821,476 @@
       <c r="E49" s="4"/>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="37" t="s">
+    <row r="50" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="24"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="24"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="22"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="22"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="22"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="24"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="22"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="24"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="22"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="24"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="22"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="24"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="22"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="22"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="24"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="22"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="24"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="22"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="22"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="24"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="22"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="24"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="22"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="24"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="22"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="22"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="24"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="22"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="24"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="22"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="24"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="22"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="24"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="22"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="24"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="22"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="24"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="22"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="24"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="22"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="24"/>
+    </row>
+    <row r="78" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="22"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="24"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="22"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="22"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="24"/>
+    </row>
+    <row r="81" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="22"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="24"/>
+    </row>
+    <row r="82" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="22"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="24"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="22"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="24"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="22"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="24"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="22"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="24"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="22"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="24"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="22"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="24"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="22"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="24"/>
+    </row>
+    <row r="89" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="22"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="24"/>
+    </row>
+    <row r="90" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="22"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="24"/>
+    </row>
+    <row r="91" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="22"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="24"/>
+    </row>
+    <row r="92" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="22"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="24"/>
+    </row>
+    <row r="93" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="22"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="24"/>
+    </row>
+    <row r="94" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="22"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="24"/>
+    </row>
+    <row r="95" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="22"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="24"/>
+    </row>
+    <row r="96" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="22"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="24"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="24"/>
+    </row>
+    <row r="98" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="24"/>
+    </row>
+    <row r="99" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="22"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="24"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="22"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="24"/>
+    </row>
+    <row r="101" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="22"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="24"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="25"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="53" t="e">
-        <f>AVERAGE(D12:D49)</f>
+      <c r="D102" s="53" t="e">
+        <f>AVERAGE(D12:D101)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="54" t="e">
-        <f>AVERAGE(E12:E49)</f>
+      <c r="E102" s="54" t="e">
+        <f>AVERAGE(E12:E101)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="55" t="e">
-        <f>AVERAGE(F12:F49)</f>
+      <c r="F102" s="55" t="e">
+        <f>AVERAGE(F12:F101)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="40" t="s">
+    <row r="103" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="25"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="56">
-        <f>MIN(D12:D49)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="57">
-        <f>MIN(E12:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="58">
-        <f>MIN(F12:F49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="42" t="s">
+      <c r="D103" s="56">
+        <f>MIN(D12:D101)</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="57">
+        <f>MIN(E12:E101)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="58">
+        <f>MIN(F12:F101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="26"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="59">
-        <f>MAX(D12:D49)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="60">
-        <f>MAX(E12:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="61">
-        <f>MAX(F12:F49)</f>
+      <c r="D104" s="59">
+        <f>MAX(D12:D101)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="60">
+        <f>MAX(E12:E101)</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="61">
+        <f>MAX(F12:F101)</f>
         <v>0</v>
       </c>
     </row>
@@ -2899,7 +3319,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:M2"/>
@@ -2920,36 +3340,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="138"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="128"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
     </row>
     <row r="3" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
@@ -2957,13 +3377,13 @@
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
-      <c r="D3" s="132">
+      <c r="D3" s="133">
         <f>'Page de garde'!E28</f>
         <v>0</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
       <c r="J3" s="74"/>
@@ -2977,13 +3397,13 @@
       </c>
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
-      <c r="D4" s="149" t="str">
+      <c r="D4" s="150" t="str">
         <f>RECAPNOTES!D5</f>
         <v xml:space="preserve">Bac Pro MCV option AGEC </v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="74"/>
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
@@ -2997,13 +3417,13 @@
       </c>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
-      <c r="D5" s="149">
+      <c r="D5" s="150">
         <f>'Page de garde'!F37</f>
         <v>0</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="146"/>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
@@ -3017,13 +3437,13 @@
       </c>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
-      <c r="D6" s="143" t="str">
+      <c r="D6" s="144" t="str">
         <f>RECAPNOTES!D7</f>
         <v>SESSION 2023</v>
       </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="77"/>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
@@ -3043,20 +3463,20 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="147" t="s">
+      <c r="D8" s="148" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3077,21 +3497,21 @@
       <c r="J8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="139" t="s">
+      <c r="L8" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="146" t="s">
+      <c r="M8" s="147" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="131"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="148"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="20" t="s">
         <v>59</v>
       </c>
@@ -3110,9 +3530,9 @@
       <c r="J9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="142"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="128"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="129"/>
     </row>
     <row r="10" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
@@ -4073,6 +4493,1746 @@
         <v>0</v>
       </c>
       <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <f>RECAPNOTES!A44</f>
+        <v>0</v>
+      </c>
+      <c r="B42" s="9">
+        <f>RECAPNOTES!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="9">
+        <f>RECAPNOTES!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29">
+        <f t="shared" ref="K42:K55" si="2">SUM(E42:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="80">
+        <f t="shared" ref="L42:L55" si="3">SUM(K42*5)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <f>RECAPNOTES!A45</f>
+        <v>0</v>
+      </c>
+      <c r="B43" s="9">
+        <f>RECAPNOTES!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="9">
+        <f>RECAPNOTES!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <f>RECAPNOTES!A46</f>
+        <v>0</v>
+      </c>
+      <c r="B44" s="9">
+        <f>RECAPNOTES!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
+        <f>RECAPNOTES!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <f>RECAPNOTES!A47</f>
+        <v>0</v>
+      </c>
+      <c r="B45" s="9">
+        <f>RECAPNOTES!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="9">
+        <f>RECAPNOTES!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <f>RECAPNOTES!A48</f>
+        <v>0</v>
+      </c>
+      <c r="B46" s="9">
+        <f>RECAPNOTES!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
+        <f>RECAPNOTES!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <f>RECAPNOTES!A49</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="9">
+        <f>RECAPNOTES!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="9">
+        <f>RECAPNOTES!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <f>RECAPNOTES!A50</f>
+        <v>0</v>
+      </c>
+      <c r="B48" s="9">
+        <f>RECAPNOTES!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="9">
+        <f>RECAPNOTES!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <f>RECAPNOTES!A51</f>
+        <v>0</v>
+      </c>
+      <c r="B49" s="9">
+        <f>RECAPNOTES!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="9">
+        <f>RECAPNOTES!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <f>RECAPNOTES!A52</f>
+        <v>0</v>
+      </c>
+      <c r="B50" s="9">
+        <f>RECAPNOTES!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="9">
+        <f>RECAPNOTES!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <f>RECAPNOTES!A53</f>
+        <v>0</v>
+      </c>
+      <c r="B51" s="9">
+        <f>RECAPNOTES!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
+        <f>RECAPNOTES!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <f>RECAPNOTES!A54</f>
+        <v>0</v>
+      </c>
+      <c r="B52" s="9">
+        <f>RECAPNOTES!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="9">
+        <f>RECAPNOTES!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <f>RECAPNOTES!A55</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="9">
+        <f>RECAPNOTES!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="9">
+        <f>RECAPNOTES!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <f>RECAPNOTES!A56</f>
+        <v>0</v>
+      </c>
+      <c r="B54" s="9">
+        <f>RECAPNOTES!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <f>RECAPNOTES!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <f>RECAPNOTES!A57</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="9">
+        <f>RECAPNOTES!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="9">
+        <f>RECAPNOTES!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <f>RECAPNOTES!A58</f>
+        <v>0</v>
+      </c>
+      <c r="B56" s="9">
+        <f>RECAPNOTES!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="9">
+        <f>RECAPNOTES!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="29">
+        <f t="shared" ref="K56:K99" si="4">SUM(E56:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="80">
+        <f t="shared" ref="L56:L99" si="5">SUM(K56*5)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <f>RECAPNOTES!A59</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="9">
+        <f>RECAPNOTES!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="9">
+        <f>RECAPNOTES!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <f>RECAPNOTES!A60</f>
+        <v>0</v>
+      </c>
+      <c r="B58" s="9">
+        <f>RECAPNOTES!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="9">
+        <f>RECAPNOTES!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <f>RECAPNOTES!A61</f>
+        <v>0</v>
+      </c>
+      <c r="B59" s="9">
+        <f>RECAPNOTES!B61</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="9">
+        <f>RECAPNOTES!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <f>RECAPNOTES!A62</f>
+        <v>0</v>
+      </c>
+      <c r="B60" s="9">
+        <f>RECAPNOTES!B62</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="9">
+        <f>RECAPNOTES!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <f>RECAPNOTES!A63</f>
+        <v>0</v>
+      </c>
+      <c r="B61" s="9">
+        <f>RECAPNOTES!B63</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="9">
+        <f>RECAPNOTES!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <f>RECAPNOTES!A64</f>
+        <v>0</v>
+      </c>
+      <c r="B62" s="9">
+        <f>RECAPNOTES!B64</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="9">
+        <f>RECAPNOTES!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <f>RECAPNOTES!A65</f>
+        <v>0</v>
+      </c>
+      <c r="B63" s="9">
+        <f>RECAPNOTES!B65</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="9">
+        <f>RECAPNOTES!C65</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="18"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <f>RECAPNOTES!A66</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="9">
+        <f>RECAPNOTES!B66</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="9">
+        <f>RECAPNOTES!C66</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <f>RECAPNOTES!A67</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="9">
+        <f>RECAPNOTES!B67</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="9">
+        <f>RECAPNOTES!C67</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="18"/>
+    </row>
+    <row r="66" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <f>RECAPNOTES!A68</f>
+        <v>0</v>
+      </c>
+      <c r="B66" s="9">
+        <f>RECAPNOTES!B68</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="9">
+        <f>RECAPNOTES!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="18"/>
+    </row>
+    <row r="67" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <f>RECAPNOTES!A69</f>
+        <v>0</v>
+      </c>
+      <c r="B67" s="9">
+        <f>RECAPNOTES!B69</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="9">
+        <f>RECAPNOTES!C69</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="18"/>
+    </row>
+    <row r="68" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <f>RECAPNOTES!A70</f>
+        <v>0</v>
+      </c>
+      <c r="B68" s="9">
+        <f>RECAPNOTES!B70</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="9">
+        <f>RECAPNOTES!C70</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="18"/>
+    </row>
+    <row r="69" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <f>RECAPNOTES!A71</f>
+        <v>0</v>
+      </c>
+      <c r="B69" s="9">
+        <f>RECAPNOTES!B71</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="9">
+        <f>RECAPNOTES!C71</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="18"/>
+    </row>
+    <row r="70" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <f>RECAPNOTES!A72</f>
+        <v>0</v>
+      </c>
+      <c r="B70" s="9">
+        <f>RECAPNOTES!B72</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="9">
+        <f>RECAPNOTES!C72</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <f>RECAPNOTES!A73</f>
+        <v>0</v>
+      </c>
+      <c r="B71" s="9">
+        <f>RECAPNOTES!B73</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="9">
+        <f>RECAPNOTES!C73</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <f>RECAPNOTES!A74</f>
+        <v>0</v>
+      </c>
+      <c r="B72" s="9">
+        <f>RECAPNOTES!B74</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="9">
+        <f>RECAPNOTES!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <f>RECAPNOTES!A75</f>
+        <v>0</v>
+      </c>
+      <c r="B73" s="9">
+        <f>RECAPNOTES!B75</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="9">
+        <f>RECAPNOTES!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <f>RECAPNOTES!A76</f>
+        <v>0</v>
+      </c>
+      <c r="B74" s="9">
+        <f>RECAPNOTES!B76</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="9">
+        <f>RECAPNOTES!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <f>RECAPNOTES!A77</f>
+        <v>0</v>
+      </c>
+      <c r="B75" s="9">
+        <f>RECAPNOTES!B77</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="9">
+        <f>RECAPNOTES!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="18"/>
+    </row>
+    <row r="76" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <f>RECAPNOTES!A78</f>
+        <v>0</v>
+      </c>
+      <c r="B76" s="9">
+        <f>RECAPNOTES!B78</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="9">
+        <f>RECAPNOTES!C78</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="18"/>
+    </row>
+    <row r="77" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <f>RECAPNOTES!A79</f>
+        <v>0</v>
+      </c>
+      <c r="B77" s="9">
+        <f>RECAPNOTES!B79</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="9">
+        <f>RECAPNOTES!C79</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="18"/>
+    </row>
+    <row r="78" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <f>RECAPNOTES!A80</f>
+        <v>0</v>
+      </c>
+      <c r="B78" s="9">
+        <f>RECAPNOTES!B80</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="9">
+        <f>RECAPNOTES!C80</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <f>RECAPNOTES!A81</f>
+        <v>0</v>
+      </c>
+      <c r="B79" s="9">
+        <f>RECAPNOTES!B81</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="9">
+        <f>RECAPNOTES!C81</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="18"/>
+    </row>
+    <row r="80" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <f>RECAPNOTES!A82</f>
+        <v>0</v>
+      </c>
+      <c r="B80" s="9">
+        <f>RECAPNOTES!B82</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="9">
+        <f>RECAPNOTES!C82</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="18"/>
+    </row>
+    <row r="81" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <f>RECAPNOTES!A83</f>
+        <v>0</v>
+      </c>
+      <c r="B81" s="9">
+        <f>RECAPNOTES!B83</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="9">
+        <f>RECAPNOTES!C83</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="18"/>
+    </row>
+    <row r="82" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <f>RECAPNOTES!A84</f>
+        <v>0</v>
+      </c>
+      <c r="B82" s="9">
+        <f>RECAPNOTES!B84</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="9">
+        <f>RECAPNOTES!C84</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="18"/>
+    </row>
+    <row r="83" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <f>RECAPNOTES!A85</f>
+        <v>0</v>
+      </c>
+      <c r="B83" s="9">
+        <f>RECAPNOTES!B85</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="9">
+        <f>RECAPNOTES!C85</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="18"/>
+    </row>
+    <row r="84" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <f>RECAPNOTES!A86</f>
+        <v>0</v>
+      </c>
+      <c r="B84" s="9">
+        <f>RECAPNOTES!B86</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="9">
+        <f>RECAPNOTES!C86</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="18"/>
+    </row>
+    <row r="85" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <f>RECAPNOTES!A87</f>
+        <v>0</v>
+      </c>
+      <c r="B85" s="9">
+        <f>RECAPNOTES!B87</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="9">
+        <f>RECAPNOTES!C87</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="18"/>
+    </row>
+    <row r="86" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <f>RECAPNOTES!A88</f>
+        <v>0</v>
+      </c>
+      <c r="B86" s="9">
+        <f>RECAPNOTES!B88</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="9">
+        <f>RECAPNOTES!C88</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="18"/>
+    </row>
+    <row r="87" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <f>RECAPNOTES!A89</f>
+        <v>0</v>
+      </c>
+      <c r="B87" s="9">
+        <f>RECAPNOTES!B89</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="9">
+        <f>RECAPNOTES!C89</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="18"/>
+    </row>
+    <row r="88" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <f>RECAPNOTES!A90</f>
+        <v>0</v>
+      </c>
+      <c r="B88" s="9">
+        <f>RECAPNOTES!B90</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="9">
+        <f>RECAPNOTES!C90</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="18"/>
+    </row>
+    <row r="89" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <f>RECAPNOTES!A91</f>
+        <v>0</v>
+      </c>
+      <c r="B89" s="9">
+        <f>RECAPNOTES!B91</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="9">
+        <f>RECAPNOTES!C91</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="18"/>
+    </row>
+    <row r="90" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <f>RECAPNOTES!A92</f>
+        <v>0</v>
+      </c>
+      <c r="B90" s="9">
+        <f>RECAPNOTES!B92</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="9">
+        <f>RECAPNOTES!C92</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="18"/>
+    </row>
+    <row r="91" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <f>RECAPNOTES!A93</f>
+        <v>0</v>
+      </c>
+      <c r="B91" s="9">
+        <f>RECAPNOTES!B93</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="9">
+        <f>RECAPNOTES!C93</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="18"/>
+    </row>
+    <row r="92" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <f>RECAPNOTES!A94</f>
+        <v>0</v>
+      </c>
+      <c r="B92" s="9">
+        <f>RECAPNOTES!B94</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="9">
+        <f>RECAPNOTES!C94</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="18"/>
+    </row>
+    <row r="93" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <f>RECAPNOTES!A95</f>
+        <v>0</v>
+      </c>
+      <c r="B93" s="9">
+        <f>RECAPNOTES!B95</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="9">
+        <f>RECAPNOTES!C95</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="18"/>
+    </row>
+    <row r="94" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <f>RECAPNOTES!A96</f>
+        <v>0</v>
+      </c>
+      <c r="B94" s="9">
+        <f>RECAPNOTES!B96</f>
+        <v>0</v>
+      </c>
+      <c r="C94" s="9">
+        <f>RECAPNOTES!C96</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="18"/>
+    </row>
+    <row r="95" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <f>RECAPNOTES!A97</f>
+        <v>0</v>
+      </c>
+      <c r="B95" s="9">
+        <f>RECAPNOTES!B97</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="9">
+        <f>RECAPNOTES!C97</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="18"/>
+    </row>
+    <row r="96" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <f>RECAPNOTES!A98</f>
+        <v>0</v>
+      </c>
+      <c r="B96" s="9">
+        <f>RECAPNOTES!B98</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="9">
+        <f>RECAPNOTES!C98</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="18"/>
+    </row>
+    <row r="97" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <f>RECAPNOTES!A99</f>
+        <v>0</v>
+      </c>
+      <c r="B97" s="9">
+        <f>RECAPNOTES!B99</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="9">
+        <f>RECAPNOTES!C99</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="18"/>
+    </row>
+    <row r="98" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <f>RECAPNOTES!A100</f>
+        <v>0</v>
+      </c>
+      <c r="B98" s="9">
+        <f>RECAPNOTES!B100</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="9">
+        <f>RECAPNOTES!C100</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="18"/>
+    </row>
+    <row r="99" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
+      <c r="A99" s="82">
+        <f>RECAPNOTES!A101</f>
+        <v>0</v>
+      </c>
+      <c r="B99" s="82">
+        <f>RECAPNOTES!B101</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="82">
+        <f>RECAPNOTES!C101</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4105,7 +6265,7 @@
       <formula>"OUI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D41">
+  <conditionalFormatting sqref="D11:D99">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>"OUI"</formula>
       <formula>"OUI"</formula>
@@ -4120,7 +6280,7 @@
       <formula>"OUI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K41">
+  <conditionalFormatting sqref="K10:K99">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>0</formula>
       <formula>13.99</formula>
